--- a/examples/KD/HEAT/JAIS_2023/topic_model_results/hazard_interpretation_SAFECOM_Final.xlsx
+++ b/examples/KD/HEAT/JAIS_2023/topic_model_results/hazard_interpretation_SAFECOM_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srandrad\smart_nlp\examples\KD\HEAT\JAIS_2023\topic_model_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6B2472-5E12-47BF-A958-645021B2101E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B1F7F3-530B-41A3-9244-20C838950730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14568" yWindow="3300" windowWidth="17280" windowHeight="10044" firstSheet="1" activeTab="1" xr2:uid="{1E09127A-9D7A-4A65-B2FF-C060090E7D3B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="1" xr2:uid="{1E09127A-9D7A-4A65-B2FF-C060090E7D3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hazard-focused" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="106">
   <si>
     <t>Hazard level 1 topics</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Hazard Noun/Subject</t>
   </si>
   <si>
-    <t>Hydraulic Fluid Leak</t>
-  </si>
-  <si>
     <t>Bucket Drop Failure</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>technician, radio technician, radio, transmit, transmission, repeater, communication, frequency, unreadable, unable, unsuccessful, interference</t>
   </si>
   <si>
-    <t>control, pitch, yaw, pedal, yoke, aileron, degree, roll, left pedal, servo, aileron control, tail rotor, blade, rotor, tail, tail rotor, main rotor, lead edge</t>
-  </si>
-  <si>
     <t>Fuel System Malfunction</t>
   </si>
   <si>
@@ -350,6 +344,15 @@
   </si>
   <si>
     <t xml:space="preserve">strike, wire strike, bird, powerline, struck, impact,  tree </t>
+  </si>
+  <si>
+    <t>possibly change to external</t>
+  </si>
+  <si>
+    <t>control, pitch, yaw, pedal, yoke, aileron, degree, roll, left pedal, servo, aileron control, lead edge</t>
+  </si>
+  <si>
+    <t>Hydraulic Fluid Leaks and Malfunctions</t>
   </si>
 </sst>
 </file>
@@ -399,11 +402,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E799D7D2-7755-4A40-8FAC-FBB6E32500C5}">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -813,7 +815,7 @@
         <v>3</v>
       </c>
       <c r="U1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
@@ -824,72 +826,72 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
         <v>44</v>
       </c>
-      <c r="N2" t="s">
-        <v>45</v>
-      </c>
       <c r="R2" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="U2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="R3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -900,27 +902,27 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="R7" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" t="s">
         <v>51</v>
-      </c>
-      <c r="U7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -931,176 +933,176 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" t="s">
         <v>24</v>
-      </c>
-      <c r="R9" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
       <c r="R12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N13" t="s">
-        <v>103</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>31</v>
+        <v>101</v>
+      </c>
+      <c r="R13" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="R18" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>84</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N20" t="s">
-        <v>93</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>55</v>
+        <v>91</v>
+      </c>
+      <c r="R20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -1111,16 +1113,16 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -1131,41 +1133,41 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -1176,30 +1178,30 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="N26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
@@ -1210,38 +1212,41 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="U28" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/examples/KD/HEAT/JAIS_2023/topic_model_results/hazard_interpretation_SAFECOM_Final.xlsx
+++ b/examples/KD/HEAT/JAIS_2023/topic_model_results/hazard_interpretation_SAFECOM_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srandrad\smart_nlp\examples\KD\HEAT\JAIS_2023\topic_model_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B1F7F3-530B-41A3-9244-20C838950730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95590D3F-B32E-42DA-96BA-F94B2B2EA847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="1" xr2:uid="{1E09127A-9D7A-4A65-B2FF-C060090E7D3B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="142">
   <si>
     <t>Hazard level 1 topics</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Hazard Noun/Subject</t>
   </si>
   <si>
-    <t>Bucket Drop Failure</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -91,18 +88,9 @@
     <t>3, 18, 56, 72</t>
   </si>
   <si>
-    <t>Tanker Loading Failure</t>
-  </si>
-  <si>
-    <t>1, 14, 74</t>
-  </si>
-  <si>
     <t>Radio Malfunction</t>
   </si>
   <si>
-    <t>caution, master caution, light, master, illuminate, light illuminate, master caution panel, precautionary land, caution light illuminate, reset master, reset master caution, warn light, warn, warn light illuminate</t>
-  </si>
-  <si>
     <t>On-board Caution Light Illuminates</t>
   </si>
   <si>
@@ -112,21 +100,12 @@
     <t>Inadequate PPE</t>
   </si>
   <si>
-    <t>circuit, breaker, circuit breaker, electrical, reset, switch, alternator, meter, popped, smell, panel, electrical power, wire, connection, loose, plug, wiring, loose wire, broken wire, cable</t>
-  </si>
-  <si>
     <t>Avionics Malfunction</t>
   </si>
   <si>
     <t>Severe Weather</t>
   </si>
   <si>
-    <t>21, 36</t>
-  </si>
-  <si>
-    <t>gear, retract, lock, main gear, nose, gear lock, gear retract, wheel, gear handle, left main gear, gear extend, nose wheel, land gear retract, right main gear, lock position, tire, flat</t>
-  </si>
-  <si>
     <t>In-flight Collision</t>
   </si>
   <si>
@@ -136,21 +115,12 @@
     <t>Personnel Duty Hours Exceeded</t>
   </si>
   <si>
-    <t>23, 42</t>
-  </si>
-  <si>
     <t>45, 60, 95, 99</t>
   </si>
   <si>
-    <t>Helitorch Operations Failure</t>
-  </si>
-  <si>
     <t>Engine Malfunction</t>
   </si>
   <si>
-    <t>Refuel Truck Problems</t>
-  </si>
-  <si>
     <t>Load Limits Exceeded</t>
   </si>
   <si>
@@ -172,12 +142,6 @@
     <t>oil, fuel</t>
   </si>
   <si>
-    <t>calculation, load calculation, allowable, payload, weight, allowable payload, load calc, calc, exceed, gross weight</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
     <t>Landing Gear Malfunction</t>
   </si>
   <si>
@@ -187,179 +151,323 @@
     <t>Jumper Operations Hazards</t>
   </si>
   <si>
-    <t>Runway Hazards</t>
-  </si>
-  <si>
-    <t>collisions, near collisions, miscommunications</t>
-  </si>
-  <si>
     <t>Control Surface Damage</t>
   </si>
   <si>
-    <t>gauge, mechanical, engine</t>
-  </si>
-  <si>
     <t>Oil Malfunction</t>
   </si>
   <si>
-    <t>temperature, pressure, gauge</t>
-  </si>
-  <si>
-    <t>oil, hydraulic</t>
-  </si>
-  <si>
-    <t>technician, radio technician, radio, transmit, transmission, repeater, communication, frequency, unreadable, unable, unsuccessful, interference</t>
-  </si>
-  <si>
     <t>Fuel System Malfunction</t>
   </si>
   <si>
-    <t>Runway Collisions</t>
-  </si>
-  <si>
-    <t>stop, taxi, ramp, parking, runway, taxiway, parking tender, taxi way, parking area, hangar, end runway, active runway, taxi ramp, taxi parking, hand signal, approach, tanker base, takeoff, steer</t>
-  </si>
-  <si>
-    <t>fuel truck, fuel truck driver, refuel, chase truck, hot refuel</t>
-  </si>
-  <si>
-    <t>collision, damage, touch, struck, clearance, close</t>
-  </si>
-  <si>
     <t>35, 41, 53, 55, 70, 67, 82, 30, 97, 14, 8, 80, 50, 76, 10, 44, 54, 71, 81, 84, 91, 96, 78, 23, 29, 32, 36, 38, 55, 83</t>
   </si>
   <si>
     <t>Structural Damage</t>
   </si>
   <si>
-    <t>Communications Breakdown</t>
-  </si>
-  <si>
     <t>3, 24, 25</t>
   </si>
   <si>
     <t>39, 7, 16</t>
   </si>
   <si>
-    <t>incorrect frequency, unable, issue, maintain positive communication</t>
-  </si>
-  <si>
     <t>23, 35</t>
   </si>
   <si>
-    <t>wind, gust, condition, turbulence, inclement weather, inclement, climbed safe altitude, climbed safe, weather, visibility, fire behavior, fog, hazy, smoke</t>
-  </si>
-  <si>
-    <t>5, 41, 85, 53</t>
-  </si>
-  <si>
     <t>68, 56</t>
   </si>
   <si>
-    <t>12, 14, 28, 74</t>
-  </si>
-  <si>
-    <t>50, 54, 77, 82, 93, 64, 8, 41, 49, 83</t>
-  </si>
-  <si>
-    <t>11, 22, 83</t>
-  </si>
-  <si>
-    <t>13, 32, 92, 43, 87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jettison, jettison load, jettison retardant, jettison retardant load, retardant, retardant spill, overflow, retardant discharge </t>
-  </si>
-  <si>
     <t>0, 3, 8, 30, 56</t>
   </si>
   <si>
-    <t>bucket, water, dip,  water drop, drop site, water source, configure bucket, gallon, gal, release water, hook, belly hook, belly, release, snorkel</t>
-  </si>
-  <si>
     <t>34, 3</t>
   </si>
   <si>
-    <t>intrusion tfr, intruder, tfr, incursion, tfr intrusion, intrude tfr, tfr violation, tfr incursion, violate tfr, airspace conflict,  drone, enter tfr, drone sight, drone intrusion, UAS, intrusion</t>
-  </si>
-  <si>
     <t>helitorch, torch, gel, helitorch operation, flame, barrel, ignite, aerial ignition, aerial ignition helitorch, mix, ignition helitorch, propane, psd, sphere, psd operation, prescribed, psd operator, prescribed burn, blown fuse, plastic sphere, fuse blown, plastic sphere dispenser, dispenser</t>
   </si>
   <si>
-    <t>crack, blade, tail rotor, inch,  damage, repair, shaft, cover, lead edge, broken, fuselage, tail rotor blade, rotor blade, hole, worn, approximately inch, main rotor blade, skin, small crack,  dent, shear, loose, scratch, cowl, structural, wing, tear, pylon, abnormality, defect, bent, airframe, flap, fin , delamination, inch crack</t>
-  </si>
-  <si>
-    <t>grease, bucket, no, without, any, undamaged</t>
-  </si>
-  <si>
-    <t>fuel leak, spill, leakage, fuel pump, fuel pressure, shutoff, fuel shutoff, fuel cap, cuel cap, fuel boost, fuel filter, fuel pressure gauge, auxiliary fuel tank, carburator, puddle</t>
-  </si>
-  <si>
     <t>medical, hospital, injury, emt, patient, injured, medieav, ambulance, local hospital, life, emergency, medevac, treat, pain, paramedic, minor injury, medivac</t>
   </si>
   <si>
-    <t>latch, secure, door open, compartment, slide door, rear door, ajar, door popped, door hinge, baggage door, compartment door, ajar, unsecured</t>
-  </si>
-  <si>
-    <t>88, 8</t>
-  </si>
-  <si>
-    <t>mission, bucket, water</t>
-  </si>
-  <si>
-    <t>sling, cargo, hook , net, longline, sling load, remote hook, swivel, long line, long, cargo net, backhaul, external load, deliver, release, sling site, fell , bag, haul, chain</t>
-  </si>
-  <si>
-    <t>fuel, good</t>
-  </si>
-  <si>
     <t>53, 82, 67</t>
   </si>
   <si>
-    <t>oil, oil pressure, oil gauge, oil cooler, transmission oil, oil temperature,  temp, pressure gauge, low oil pressure, engine oil pressure, transmission oil pressure, oil pressure gauge, oil leak, oil drip</t>
-  </si>
-  <si>
-    <t>fine, normal, oil</t>
-  </si>
-  <si>
-    <t>chip, chip light, transmission chip, plug, transmission, chip plug, engine chip light, engine , recip engine, spark, spark plug, reciprocate, reciprocate engine, backfire, compressor, bang, stall, compressor stall, power, rpm, torque, generator, starter, battery, starter generator, white smoke come, white smoke</t>
-  </si>
-  <si>
-    <t>jumper, smokejumper, smokejumpers, spotter, jummp spot, streamer, parachute, jump ship, smoke jumper, jump plane, jumpspot, jumpship, practice jump, paracargo, para cargo, yard drift, parachute jump, set streamer, rappeller</t>
-  </si>
-  <si>
-    <t>29, 72, 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duty day, exceed, exceeded, hour duty day,  past pumpkin time, minutes after, hours </t>
-  </si>
-  <si>
-    <t>downwind, runway, traffic pattern, pattern, class airspace, airspace, controller,  advisory, left downwind, restrict, airfield, announce, mid field, intention, vfr, turn downwind, enter traffic, flight restriction, temporary flight restriction, transponder, enter downwind, traffic advisory, restrict area, enter pattern, announce intention, aerial observer, aerial detection, cautionary, overflew, underflew, ifr, vfr, over flew</t>
-  </si>
-  <si>
-    <t>12, 27, 37, 47, 39, 69, 96, 7, 80</t>
-  </si>
-  <si>
-    <t>parked, ground, no, jumper, nothing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strike, wire strike, bird, powerline, struck, impact,  tree </t>
-  </si>
-  <si>
-    <t>possibly change to external</t>
-  </si>
-  <si>
-    <t>control, pitch, yaw, pedal, yoke, aileron, degree, roll, left pedal, servo, aileron control, lead edge</t>
-  </si>
-  <si>
     <t>Hydraulic Fluid Leaks and Malfunctions</t>
+  </si>
+  <si>
+    <t>88, 8, 30</t>
+  </si>
+  <si>
+    <t>5, 41, 85, 53, 50, 11, 82, 93, 21</t>
+  </si>
+  <si>
+    <t>tube</t>
+  </si>
+  <si>
+    <t>caution light, master caution,  light, master, illuminate, light illuminate, master caution panel, precautionary land, caution light illuminate, reset master, reset master caution, warn light, warn, warn light illuminate, indicator light</t>
+  </si>
+  <si>
+    <t>11, 22, 83, 82</t>
+  </si>
+  <si>
+    <t>50, 54, 77, 82, 93, 64, 8, 41, 49, 83, 97</t>
+  </si>
+  <si>
+    <t>test set issue</t>
+  </si>
+  <si>
+    <t>landing gear, gear retract, retraction, main gear, nose gear, gear lock, gear retract, wheel, gear handle, left main gear, gear extend, nose wheel, land gear retract, right main gear, lock position, tire, flat, right gear, left gear, brakes</t>
+  </si>
+  <si>
+    <t>21, 36, 67, 87, 8</t>
+  </si>
+  <si>
+    <t>67, 21</t>
+  </si>
+  <si>
+    <t>intrusion tfr, intruder, tfr, incursion, tfr intrusion, intrude tfr, tfr violation, tfr incursion, violate tfr, airspace conflict,  drone, enter tfr, drone sight, drone intrusion, UAS, intrusion, uas</t>
+  </si>
+  <si>
+    <t>1, 14, 74, 80, 91, 11</t>
+  </si>
+  <si>
+    <t>13, 32, 92, 43, 87, 3</t>
+  </si>
+  <si>
+    <t>parked, ground, no, jumper, nothing, lightning, individual</t>
+  </si>
+  <si>
+    <t>strike, wire strike, bird, powerline, struck, impact,  tree, brush</t>
+  </si>
+  <si>
+    <t>fuel, good, added</t>
+  </si>
+  <si>
+    <t>oil, oil pressure, oil gauge, oil cooler, transmission oil, oil temperature, oil temp, pressure gauge, low oil pressure, engine oil pressure, transmission oil pressure, oil pressure gauge, oil leak, oil drip</t>
+  </si>
+  <si>
+    <t>63, 30</t>
+  </si>
+  <si>
+    <t>sling, release cargo, cargo drop, drop cargo, cargo letdown, letdown cargo, hook release, release hook, net, release longline, sling load, swivel, release long line, cargo net, backhaul, external load, deliver, release, sling site, fell , bag, haul, chain</t>
+  </si>
+  <si>
+    <t>mission, bucket, water, passenger, bambi, site</t>
+  </si>
+  <si>
+    <t>latch, secure door, door secure, door open, compartment, slide door, rear door, ajar, door popped, door hinge, baggage door, cargo door, compartment door, ajar, unsecured, door window, come open,  gate, leaking door</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>fuel leak, spill, leakage, fuel pump, fuel pressure, shutoff, fuel shutoff, fuel boost, fuel filter, fuel pressure gauge, auxiliary fuel tank, carburator, puddle, fuel system, fuel use gauge, fuel flow gauge, fuel gauge, fuel primer, fuel control, fuel line, fuel tank, fuel testing</t>
+  </si>
+  <si>
+    <t>oil, hydraulic, no , empty, noticed</t>
+  </si>
+  <si>
+    <t>29, 72, 80, 89</t>
+  </si>
+  <si>
+    <t>23, 42, 11, 77, 24</t>
+  </si>
+  <si>
+    <t>Electrical Failure</t>
+  </si>
+  <si>
+    <t>Rotor &amp; Propeller Damage</t>
+  </si>
+  <si>
+    <t>jettison, jettison load, jettison retardant, jettison retardant load, retardant spill, overflow , retardant discharge, jettisson</t>
+  </si>
+  <si>
+    <t>in time to</t>
+  </si>
+  <si>
+    <t>radio technician, radio tech, vhf radio, handheld radio, unreadable, transmit receive, able hear, victor, technisonic, technosonic, hand held radio, several attempt, interference, squelch, able communicate, unable transmit, tdfm radio, radio technician, radio malfunction, scratchy, different repeater, establish communication, function properly, garble, unsuccessful attempt, feedback, local repeater frequency, technisonic radio, deck frequency, echo, work properly, spotty, difficult understand, transmit button, technisonic tdfm, squeal, bleed, unable communicate, several attempt, inoperable radio, broken unreadable, transmit tone, unable transmit receive, background noise, communications failure, radio communication, communication problem, could not talk, problems with radio, radio contact, cell phone, could not raise, no communications, not established, radio shut off, unable to transmit, could not hear</t>
+  </si>
+  <si>
+    <t>11, 22, 46, 69, 83</t>
+  </si>
+  <si>
+    <t>gps, tcas, autopilot, unresponsive display, instrument panel, avionics, software, camera, unresponsive, navigator, radar</t>
+  </si>
+  <si>
+    <t>clear, light, minor, flame, jumper, no, fire attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gust, turbulence, inclement weather, inclement, climbed safe altitude, climbed safe, severe weather, low visibility, poor visibility, limited visibility, fog, hazy, smoke , storm, strong wind, erratic wind, winds changed, changing winds, high wind, severe wind, winds were a factor, weather was a factor, relatively strong, due to visibility</t>
+  </si>
+  <si>
+    <t>well, leaking, oil, tank</t>
+  </si>
+  <si>
+    <t>duty day, exceed, exceeded, hour duty day,  past pumpkin time, minutes after, hours over, over hours, hours exceed, exceed hour, fly time, fatigue</t>
+  </si>
+  <si>
+    <t>after, doing, mission, refill, perform, refilled</t>
+  </si>
+  <si>
+    <t>incorrect calculation, load calculation, allowable, payload,  weight , allowable payload, load calc, exceed, gross weight,  contract load, overweight, over weight</t>
+  </si>
+  <si>
+    <t>blade, tail rotor,  tail rotor blade, rotor blade,  main rotor blade, propeller,  prop , rotor head</t>
+  </si>
+  <si>
+    <t>23, 35, 49, 50, 77, 82, 24, 25</t>
+  </si>
+  <si>
+    <t>prior, rest of, leaving</t>
+  </si>
+  <si>
+    <t>contact, inspecting</t>
+  </si>
+  <si>
+    <t>circuit, breaker, circuit breaker, electrical, alternator, popped, panel, electrical power, loose wire, loose connection, wiring, loose wire, broken wire, cable , battery, voltage, lost power,  arced</t>
+  </si>
+  <si>
+    <t>causal, bucket, tension, slip, safety, security, off, none, flight, engine</t>
+  </si>
+  <si>
+    <t>pass, run, operation, mission, load, inbound, narrative, pass, removal</t>
+  </si>
+  <si>
+    <t>control surface, pedal, yoke, aileron, left pedal, servo , aileron control, lead edge, fin , cyclic trim actuator, actuator, flap</t>
+  </si>
+  <si>
+    <t>rpm, feathered, sucked, hub, clipped, 60, revolutions, stops, clipped</t>
+  </si>
+  <si>
+    <t>chip light, transmission chip, plug, transmission, chip plug, engine chip light, engine, recip engine, spark plug, reciprocate, reciprocate engine, backfire, compressor, bang,  stall, compressor stall, rpm, torque, generator, starter, starter generator, white smoke come, white smoke, jet , turbine, rpm, Generator Malfunction, turbine governor, Transmission, running rough, torque</t>
+  </si>
+  <si>
+    <t>fine, normal, oil, plug, bird strike, started, starting, enough, single, instruments, refill, dripping, dc, cowl, dispatched, read, tripped, gauges, important, radio, fuel, possible, first, leak</t>
+  </si>
+  <si>
+    <t>12, 27, 37, 47, 39, 69, 96, 7, 80, 8, 2, 31, 52, 65</t>
+  </si>
+  <si>
+    <t>smokejumper, smokejumpers, jump spot, streamer, parachute, smoke jumper, jump plane, jumpspot, jumpship, practice jump, paracargo, para cargo, yard drift, parachute jump, set streamer, rappeler failed, rappeller dislocated</t>
+  </si>
+  <si>
+    <t>crack,  damage, shaft,  cover , lead edge, broken, fuselage, hole, worn, approximately inch, skin, small crack,  dent, shear, loose, scratch, cowl, structural,  wing, tear, pylon, abnormality, defect, bent, airframe, delamination, inch crack, bracket arm, nose cone, compartment cover, engine cover, fracture, disintegrating</t>
+  </si>
+  <si>
+    <t>grease, bucket, no, without, any, undamaged, rotor, blade, right engine, prop, fixed, bellows, sphere, rocker, a/c, one, opened, measuring tape, sheet metal, fiber glass, manufacture</t>
+  </si>
+  <si>
+    <t>routine, uas, intrusion, no , ground, intruder, truck, weather, unknown, manager, fuel, indicating, drop, instructor</t>
+  </si>
+  <si>
+    <t>mostly issue with precision, removed in front of, airspace</t>
+  </si>
+  <si>
+    <t>traffic pattern, class airspace, airspace conflict, controller,  advisory, left downwind, airfield, mid field, intention, turn downwind, enter traffic, flight restriction, temporary flight restriction, transponder, enter downwind, traffic advisory, restrict area, enter pattern, announce intention, aerial observer, aerial detection, overflew, underflew, over flew, collide, collision, separation, near miss, confusion,  maneuver, incident with potential, changing elevations, deviated, trainee, new TFR, unannounced, notam</t>
+  </si>
+  <si>
+    <t>bambi bucket, drop site, water drop, water source, configure bucket, release water, release bucket, release line, snorkel, bucket broke, hooked bucket, bucket support cable, bucket damage, longline released, purse string wires, bucket fell, plug detached, bucket had cracked, bucket had scraped, bucket had, loaded bucket, cable broke, bucket cable, pigtail, pulled loose, bucket support cable</t>
+  </si>
+  <si>
+    <t>mission, over, support, while, directing, gallon, doing, crews, cycle</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Leaks and failures with hydraulic systems, including pumps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airspace intrusion by unknown or known aircraft </t>
+  </si>
+  <si>
+    <t>Equipment issues with water drop bucket and loading tanks. Also encapsulates pilot error issues when using water drop equipment.</t>
+  </si>
+  <si>
+    <t>Includes premature jettison of retardant and water loads (not cargo), as well as loading issues such as broken meters or filling equipment.</t>
+  </si>
+  <si>
+    <t>Radio malfunctions, including receiving and transmitting issues, interference, and broken equipment.</t>
+  </si>
+  <si>
+    <t>Any on-board maintenance light illuminates, including master caution, chip, oil, or other instrument-specific indicators.</t>
+  </si>
+  <si>
+    <t>Missing or innappropriate protection gear.</t>
+  </si>
+  <si>
+    <t>Malfunctions with specific software and avionics capabilities, including GPS and display systems</t>
+  </si>
+  <si>
+    <t>Failure with general electrical comonents, such as wires, circuits, and batteries.</t>
+  </si>
+  <si>
+    <t>Severe weather, including fire-produced smoke and turbulence.</t>
+  </si>
+  <si>
+    <t>Failure of gear to retract or extend, damage to wheel/tires landing gear.</t>
+  </si>
+  <si>
+    <t>In-flight collision, predominantley with non-aircraft objects such as birds, trees, and wires.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hazards arising from the complex airspace, including issues with separation, close calls, NMACs, poor coordination and communications, etc. </t>
+  </si>
+  <si>
+    <t>Water Drop Bucket or Tank Failure</t>
+  </si>
+  <si>
+    <t>Water or Retardant Loading &amp; Jettison Failure</t>
+  </si>
+  <si>
+    <t>Personnel working over contracted hours and fatigued.</t>
+  </si>
+  <si>
+    <t>Hazards arising from smoke jumper operations, including parachute issues, hard landings, and injuries.</t>
+  </si>
+  <si>
+    <t>Damage or failure of a control surface or sontrol instrument.</t>
+  </si>
+  <si>
+    <t>Prescribed Burn Operations Failure</t>
+  </si>
+  <si>
+    <t>Failures occuring during prescribed burn operations, including helitorch and PSD machine RX burns. Helitorch issues may include specific equipment, like the torch and burn gel. PSD issues tend to be jammed sphere dispencing machines.</t>
+  </si>
+  <si>
+    <t>General engine malfunction, chip light indicators (which are for the engine)</t>
+  </si>
+  <si>
+    <t>Any malfunction in the oil system, including temperture, pressure, pumps, gauges, and leaks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exceeded or overloaded aircraft, including both cargo and retardant. Can be due to miscalculations. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unintentional cargo release, lost cargo during transport, hard landings, and other incorrect cargo letdown occurrences. </t>
+  </si>
+  <si>
+    <t>Failure of aircraft or retardant/tank doors, including hinges.</t>
+  </si>
+  <si>
+    <t>Medical evacuation via air ambulence for both personnel and civilians.</t>
+  </si>
+  <si>
+    <t>Any malfunction in the fuel system, including temperture, pressure, pumps, gauges, and leaks.</t>
+  </si>
+  <si>
+    <t>Damage to structure of aircraft, including cracks, holes, delamination, etc.</t>
+  </si>
+  <si>
+    <t>Damage to rotor or propellor blades, include cracks, delamination, and other damage.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,8 +483,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +500,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,10 +522,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,15 +892,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E799D7D2-7755-4A40-8FAC-FBB6E32500C5}">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,439 +936,534 @@
       <c r="R1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" t="s">
+        <v>113</v>
+      </c>
+      <c r="W2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N4" t="s">
+        <v>111</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="T4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="R5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" t="s">
+        <v>117</v>
+      </c>
+      <c r="W6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>96</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="T10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" t="s">
+        <v>122</v>
+      </c>
+      <c r="W11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12" t="s">
+        <v>88</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" t="s">
+        <v>123</v>
+      </c>
+      <c r="W12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>67</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="N13" t="s">
+        <v>66</v>
+      </c>
+      <c r="R13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" t="s">
+        <v>107</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" t="s">
+        <v>125</v>
+      </c>
+      <c r="W14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" t="s">
+        <v>94</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T15" t="s">
+        <v>128</v>
+      </c>
+      <c r="W15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+      <c r="N16" t="s">
+        <v>98</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>99</v>
+      </c>
+      <c r="N17" t="s">
+        <v>55</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" t="s">
+        <v>90</v>
+      </c>
+      <c r="R18" t="s">
+        <v>131</v>
+      </c>
+      <c r="T18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>101</v>
+      </c>
+      <c r="N19" t="s">
+        <v>102</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="N20" t="s">
+        <v>68</v>
+      </c>
+      <c r="R20" t="s">
+        <v>39</v>
+      </c>
+      <c r="T20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="N22" t="s">
+        <v>72</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+      <c r="N23" t="s">
+        <v>74</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>98</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24" t="s">
+        <v>30</v>
+      </c>
+      <c r="T24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+      <c r="N25" t="s">
+        <v>76</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="T25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
         <v>105</v>
       </c>
-      <c r="U2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="R3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>77</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>57</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>60</v>
-      </c>
-      <c r="R7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
-      <c r="N11" t="s">
-        <v>46</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>102</v>
-      </c>
-      <c r="N13" t="s">
-        <v>101</v>
-      </c>
-      <c r="R13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="N26" t="s">
+        <v>106</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N27" t="s">
         <v>100</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>99</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>98</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="R27" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>96</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>104</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>82</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>95</v>
-      </c>
-      <c r="N19" t="s">
-        <v>94</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>93</v>
-      </c>
-      <c r="N20" t="s">
-        <v>91</v>
-      </c>
-      <c r="R20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>58</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>61</v>
-      </c>
-      <c r="N21" t="s">
-        <v>53</v>
-      </c>
-      <c r="R21" t="s">
-        <v>37</v>
-      </c>
-      <c r="U21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>63</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>45</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>90</v>
-      </c>
-      <c r="N23" t="s">
-        <v>89</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>87</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>98</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>86</v>
-      </c>
-      <c r="N25" t="s">
-        <v>42</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>85</v>
-      </c>
-      <c r="N26" t="s">
-        <v>56</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>62</v>
-      </c>
-      <c r="R27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>83</v>
-      </c>
-      <c r="N28" t="s">
-        <v>84</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="U28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" t="s">
-        <v>68</v>
-      </c>
-      <c r="R29" t="s">
-        <v>65</v>
+      <c r="T27" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/examples/KD/HEAT/JAIS_2023/topic_model_results/hazard_interpretation_SAFECOM_Final.xlsx
+++ b/examples/KD/HEAT/JAIS_2023/topic_model_results/hazard_interpretation_SAFECOM_Final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srandrad\smart_nlp\examples\KD\HEAT\JAIS_2023\topic_model_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95590D3F-B32E-42DA-96BA-F94B2B2EA847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550D54CC-AC93-42F4-BFD7-498809CDDB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="1" xr2:uid="{1E09127A-9D7A-4A65-B2FF-C060090E7D3B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="144">
   <si>
     <t>Hazard level 1 topics</t>
   </si>
@@ -187,9 +187,6 @@
     <t>helitorch, torch, gel, helitorch operation, flame, barrel, ignite, aerial ignition, aerial ignition helitorch, mix, ignition helitorch, propane, psd, sphere, psd operation, prescribed, psd operator, prescribed burn, blown fuse, plastic sphere, fuse blown, plastic sphere dispenser, dispenser</t>
   </si>
   <si>
-    <t>medical, hospital, injury, emt, patient, injured, medieav, ambulance, local hospital, life, emergency, medevac, treat, pain, paramedic, minor injury, medivac</t>
-  </si>
-  <si>
     <t>53, 82, 67</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>parked, ground, no, jumper, nothing, lightning, individual</t>
   </si>
   <si>
-    <t>strike, wire strike, bird, powerline, struck, impact,  tree, brush</t>
-  </si>
-  <si>
     <t>fuel, good, added</t>
   </si>
   <si>
@@ -250,9 +244,6 @@
     <t>63, 30</t>
   </si>
   <si>
-    <t>sling, release cargo, cargo drop, drop cargo, cargo letdown, letdown cargo, hook release, release hook, net, release longline, sling load, swivel, release long line, cargo net, backhaul, external load, deliver, release, sling site, fell , bag, haul, chain</t>
-  </si>
-  <si>
     <t>mission, bucket, water, passenger, bambi, site</t>
   </si>
   <si>
@@ -265,9 +256,6 @@
     <t>fuel leak, spill, leakage, fuel pump, fuel pressure, shutoff, fuel shutoff, fuel boost, fuel filter, fuel pressure gauge, auxiliary fuel tank, carburator, puddle, fuel system, fuel use gauge, fuel flow gauge, fuel gauge, fuel primer, fuel control, fuel line, fuel tank, fuel testing</t>
   </si>
   <si>
-    <t>oil, hydraulic, no , empty, noticed</t>
-  </si>
-  <si>
     <t>29, 72, 80, 89</t>
   </si>
   <si>
@@ -292,9 +280,6 @@
     <t>11, 22, 46, 69, 83</t>
   </si>
   <si>
-    <t>gps, tcas, autopilot, unresponsive display, instrument panel, avionics, software, camera, unresponsive, navigator, radar</t>
-  </si>
-  <si>
     <t>clear, light, minor, flame, jumper, no, fire attack</t>
   </si>
   <si>
@@ -310,9 +295,6 @@
     <t>after, doing, mission, refill, perform, refilled</t>
   </si>
   <si>
-    <t>incorrect calculation, load calculation, allowable, payload,  weight , allowable payload, load calc, exceed, gross weight,  contract load, overweight, over weight</t>
-  </si>
-  <si>
     <t>blade, tail rotor,  tail rotor blade, rotor blade,  main rotor blade, propeller,  prop , rotor head</t>
   </si>
   <si>
@@ -352,21 +334,9 @@
     <t>smokejumper, smokejumpers, jump spot, streamer, parachute, smoke jumper, jump plane, jumpspot, jumpship, practice jump, paracargo, para cargo, yard drift, parachute jump, set streamer, rappeler failed, rappeller dislocated</t>
   </si>
   <si>
-    <t>crack,  damage, shaft,  cover , lead edge, broken, fuselage, hole, worn, approximately inch, skin, small crack,  dent, shear, loose, scratch, cowl, structural,  wing, tear, pylon, abnormality, defect, bent, airframe, delamination, inch crack, bracket arm, nose cone, compartment cover, engine cover, fracture, disintegrating</t>
-  </si>
-  <si>
-    <t>grease, bucket, no, without, any, undamaged, rotor, blade, right engine, prop, fixed, bellows, sphere, rocker, a/c, one, opened, measuring tape, sheet metal, fiber glass, manufacture</t>
-  </si>
-  <si>
-    <t>routine, uas, intrusion, no , ground, intruder, truck, weather, unknown, manager, fuel, indicating, drop, instructor</t>
-  </si>
-  <si>
     <t>mostly issue with precision, removed in front of, airspace</t>
   </si>
   <si>
-    <t>traffic pattern, class airspace, airspace conflict, controller,  advisory, left downwind, airfield, mid field, intention, turn downwind, enter traffic, flight restriction, temporary flight restriction, transponder, enter downwind, traffic advisory, restrict area, enter pattern, announce intention, aerial observer, aerial detection, overflew, underflew, over flew, collide, collision, separation, near miss, confusion,  maneuver, incident with potential, changing elevations, deviated, trainee, new TFR, unannounced, notam</t>
-  </si>
-  <si>
     <t>bambi bucket, drop site, water drop, water source, configure bucket, release water, release bucket, release line, snorkel, bucket broke, hooked bucket, bucket support cable, bucket damage, longline released, purse string wires, bucket fell, plug detached, bucket had cracked, bucket had scraped, bucket had, loaded bucket, cable broke, bucket cable, pigtail, pulled loose, bucket support cable</t>
   </si>
   <si>
@@ -424,9 +394,6 @@
     <t>Personnel working over contracted hours and fatigued.</t>
   </si>
   <si>
-    <t>Hazards arising from smoke jumper operations, including parachute issues, hard landings, and injuries.</t>
-  </si>
-  <si>
     <t>Damage or failure of a control surface or sontrol instrument.</t>
   </si>
   <si>
@@ -461,6 +428,45 @@
   </si>
   <si>
     <t>Damage to rotor or propellor blades, include cracks, delamination, and other damage.</t>
+  </si>
+  <si>
+    <t>Hazards arising from smoke jumper operations, including parachute issues, hard landings, injuries, and aircraft in close proximity to jumper ops.</t>
+  </si>
+  <si>
+    <t>sling, release cargo, cargo drop, drop cargo, cargo letdown, letdown cargo, hook release, release hook, net, release longline, sling load, swivel, release long line, cargo net, backhaul, external load, deliver, release, sling site, fell , bag, haul, chain, accidentally released</t>
+  </si>
+  <si>
+    <t>incorrect calculation, load calculation, allowable, payload,  weight , allowable payload, load calc, exceed, gross weight,  contract load, overweight, over weight, overload, over fill, overfil</t>
+  </si>
+  <si>
+    <t>oil, hydraulic, no , empty, noticed, cycle</t>
+  </si>
+  <si>
+    <t>strike, wire strike, bird, powerline, struck, impact,  tree, brush, snag</t>
+  </si>
+  <si>
+    <t>medical, hospital, injury, emt, patient, injured, medieav, ambulance, local hospital, life, emergency, medevac, treat, pain, paramedic, minor injury, medivac, ems</t>
+  </si>
+  <si>
+    <t>grease, bucket, no, without, any, undamaged, rotor, blade, right engine, prop, fixed, bellows, sphere, rocker, a/c, one, opened, measuring tape, sheet metal, fiber glass, manufacture, propeller</t>
+  </si>
+  <si>
+    <t>crack,  damage, shaft,  cover , lead edge, broken, fuselage, hole, worn, approximately inch, skin, small crack,  dent, shear, loose, scratch, cowl, structural,  wing,  tear, pylon, abnormality, defect, bent, airframe, delamination, inch crack, bracket arm, nose cone, compartment cover, engine cover, fracture, disintegrating, nose cone</t>
+  </si>
+  <si>
+    <t>gps, tcas, autopilot, unresponsive display, instrument panel, avionics, software, camera, unresponsive, navigator, radar, AFF, national flight following,  ff</t>
+  </si>
+  <si>
+    <t>rotor, blade, right engine, prop, a/c, propeller, pulley, crossbeams, rappel, strobe, time, one, fixed, retardant, door, doorpost, latch, opened, extension, no damage, inside, opened</t>
+  </si>
+  <si>
+    <t>cover , lead edge, fuselage, boom, tail boom, bracket, skin, plate, trail edge, cowl, panel, structural, left wing, right wing, flange, bulkhead, pylon, pipe, fiberglass, compartment, airframe, fin , weld, fitting, metal frame, frame, linkage, sheet metal, fastener, cawling, crossbeam, nose cone, exhaust stack, exhaust cone, cone, fairing, structure, wing flap, wing tip, surface damage, nacelle</t>
+  </si>
+  <si>
+    <t>traffic pattern, controller, left downwind, airfield, mid field, intention, turn downwind, enter traffic, enter downwind, enter pattern, announce intention, aerial observer, aerial detection, overflew, underflew, over flew, collide, collision, separation, near miss, confusion, incident with potential, changing elevations, deviated, trainee, notam, de-confliction, flight path, assiged altitude, conflict, evasive maneuver, confused, operation airspace, proximity, deconfliction, no contact</t>
+  </si>
+  <si>
+    <t>routine, uas, intrusion, no , ground, intruder, truck, weather, unknown, manager, fuel, indicating, drop, instructor, #, number, avoid, incursion, drone, tfr, unidentified, aircraft, cessna</t>
   </si>
 </sst>
 </file>
@@ -522,12 +528,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,7 +843,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -892,10 +901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E799D7D2-7755-4A40-8FAC-FBB6E32500C5}">
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>14</v>
@@ -945,7 +954,7 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -957,10 +966,10 @@
         <v>34</v>
       </c>
       <c r="R2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="W2" t="s">
         <v>15</v>
@@ -974,13 +983,13 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R3" t="s">
         <v>31</v>
       </c>
       <c r="T3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -991,16 +1000,16 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="T4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
@@ -1011,53 +1020,53 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="R5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="T5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="T6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="W6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R7" t="s">
         <v>18</v>
       </c>
       <c r="T7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -1074,93 +1083,93 @@
         <v>20</v>
       </c>
       <c r="T8" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="R9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="T9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="N11" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="T11" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="W11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="T12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="W12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -1171,62 +1180,62 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="N13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R13" t="s">
         <v>23</v>
       </c>
       <c r="T13" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>142</v>
       </c>
       <c r="N14" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="T14" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="W14" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="N15" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="T15" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="W15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
@@ -1237,39 +1246,39 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="N16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="R16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="T16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="N17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>38</v>
       </c>
       <c r="T17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1280,73 +1289,73 @@
         <v>49</v>
       </c>
       <c r="N18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R18" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="T18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="N19" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="T19" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="R20" t="s">
         <v>39</v>
       </c>
       <c r="T20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="R21" s="4" t="s">
         <v>28</v>
       </c>
       <c r="T21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1354,39 +1363,39 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="N22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="T22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>36</v>
       </c>
       <c r="T23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>98</v>
       </c>
@@ -1394,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="N24" t="s">
         <v>32</v>
@@ -1403,10 +1412,10 @@
         <v>30</v>
       </c>
       <c r="T24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1414,57 +1423,66 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N25" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="R25" s="4" t="s">
         <v>40</v>
       </c>
       <c r="T25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="V25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>45</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="E26" t="s">
-        <v>105</v>
+      <c r="E26" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="N26" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>42</v>
       </c>
       <c r="T26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="V26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="N27" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="R27" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s">
-        <v>141</v>
-      </c>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
